--- a/data/long_dif/P24_8-Edad-long_dif.xlsx
+++ b/data/long_dif/P24_8-Edad-long_dif.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -627,52 +651,67 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,16%</t>
+          <t>12,46%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,71%</t>
+          <t>9,88%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17,86%</t>
+          <t>18,07%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>24,44%</t>
+          <t>15,64%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>16,39%</t>
+          <t>25,13%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>12,59%</t>
+          <t>16,09%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>18,07%</t>
+          <t>12,73%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>12,98%</t>
+          <t>20,78%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>15,23%</t>
+          <t>18,56%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>12,92%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>15,41%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>18,27%</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,93; 18,66</t>
+          <t>7,42; 18,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,54; 18,46</t>
+          <t>4,87; 17,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,11; 26,38</t>
+          <t>10,84; 27,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,72; 32,31</t>
+          <t>7,39; 27,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,61; 23,74</t>
+          <t>18,24; 33,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,47; 19,13</t>
+          <t>10,66; 24,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,58; 23,56</t>
+          <t>7,79; 19,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,79; 18,41</t>
+          <t>13,21; 30,03</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,01; 20,87</t>
+          <t>13,95; 24,12</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>8,64; 18,15</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>10,95; 21,42</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>12,65; 26,2</t>
         </is>
       </c>
     </row>
@@ -733,52 +787,67 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>75,77%</t>
+          <t>75,25%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>75,91%</t>
+          <t>75,82%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>75,44%</t>
+          <t>75,02%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>63,7%</t>
+          <t>69,88%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>71,42%</t>
+          <t>63,2%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>64,66%</t>
+          <t>72,2%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>69,96%</t>
+          <t>65,18%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>73,71%</t>
+          <t>51,67%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>70,07%</t>
+          <t>69,44%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>74,05%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>70,12%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>60,57%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>67,16; 82,88</t>
+          <t>66,52; 82,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>66,42; 84,08</t>
+          <t>65,93; 84,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>66,34; 84,31</t>
+          <t>65,35; 83,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>55,09; 72,27</t>
+          <t>56,01; 81,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>62,29; 78,61</t>
+          <t>54,33; 71,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>56,06; 72,46</t>
+          <t>62,89; 79,9</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>63,73; 75,62</t>
+          <t>57,14; 73,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>67,03; 79,94</t>
+          <t>41,41; 62,62</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>63,67; 75,79</t>
+          <t>63,38; 74,94</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>67,35; 79,72</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>62,55; 75,66</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>51,57; 68,55</t>
         </is>
       </c>
     </row>
@@ -839,52 +923,67 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,07%</t>
+          <t>12,3%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>14,38%</t>
+          <t>14,3%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>6,91%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,86%</t>
+          <t>14,48%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>12,19%</t>
+          <t>11,67%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>22,75%</t>
+          <t>11,71%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>11,97%</t>
+          <t>22,1%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>13,31%</t>
+          <t>27,55%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>14,69%</t>
+          <t>12,0%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>13,03%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>14,47%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>21,16%</t>
         </is>
       </c>
     </row>
@@ -897,104 +996,130 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,83; 18,64</t>
+          <t>7,04; 19,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,01; 22,56</t>
+          <t>7,89; 22,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,8; 13,74</t>
+          <t>2,51; 14,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,83; 17,83</t>
+          <t>6,39; 26,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,04; 20,71</t>
+          <t>6,71; 18,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,08; 30,7</t>
+          <t>6,63; 18,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,28; 16,9</t>
+          <t>15,63; 29,54</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,27; 19,13</t>
+          <t>19,11; 38,14</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,88; 19,82</t>
+          <t>8,33; 16,79</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>8,71; 18,13</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>10,49; 19,34</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>14,86; 28,57</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>14,01%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,92%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>19,48%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>15,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>16,68%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>12,96%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>14,03%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1007,100 +1132,134 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,96; 31,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,0; 17,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,69; 18,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,14; 26,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,24; 22,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,44; 23,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,02; 25,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,03; 17,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,56; 18,24</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>76,63%</t>
+          <t>15,02%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>77,85%</t>
+          <t>10,71%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>80,11%</t>
+          <t>10,82%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>67,91%</t>
+          <t>10,97%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>71,56%</t>
+          <t>19,86%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>67,5%</t>
+          <t>14,98%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>72,37%</t>
+          <t>17,28%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>74,91%</t>
+          <t>18,37%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>74,21%</t>
+          <t>17,36%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>12,69%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>13,84%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>14,31%</t>
         </is>
       </c>
     </row>
@@ -1113,47 +1272,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>61,16; 84,56</t>
+          <t>7,13; 35,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>68,69; 85,42</t>
+          <t>5,8; 17,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>73,06; 86,56</t>
+          <t>6,1; 17,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>59,38; 75,84</t>
+          <t>5,33; 18,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>63,14; 79,25</t>
+          <t>13,17; 27,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>60,36; 73,33</t>
+          <t>9,63; 22,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>65,5; 78,14</t>
+          <t>12,04; 22,99</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>68,79; 80,53</t>
+          <t>11,95; 27,23</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>69,34; 78,88</t>
+          <t>12,38; 26,9</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>8,86; 17,09</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>10,37; 17,98</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>9,06; 20,07</t>
         </is>
       </c>
     </row>
@@ -1161,52 +1335,67 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>9,36%</t>
+          <t>75,72%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>11,23%</t>
+          <t>78,47%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>8,73%</t>
+          <t>80,46%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>12,61%</t>
+          <t>69,86%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>13,15%</t>
+          <t>67,5%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>15,2%</t>
+          <t>72,2%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>10,95%</t>
+          <t>66,92%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>12,13%</t>
+          <t>63,25%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>11,76%</t>
+          <t>71,74%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>75,56%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>74,14%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>66,88%</t>
         </is>
       </c>
     </row>
@@ -1219,104 +1408,130 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,07; 15,48</t>
+          <t>58,08; 84,38</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,88; 17,87</t>
+          <t>70,19; 86,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,21; 14,34</t>
+          <t>72,82; 86,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,59; 20,66</t>
+          <t>53,1; 82,5</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,68; 19,81</t>
+          <t>58,48; 75,32</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>10,77; 21,49</t>
+          <t>63,74; 79,62</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,6; 15,28</t>
+          <t>60,19; 74,39</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>8,78; 17,48</t>
+          <t>53,75; 71,43</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>8,48; 15,64</t>
+          <t>62,58; 77,5</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>69,91; 81,41</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>69,13; 79,39</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>56,99; 75,52</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>16,35%</t>
+          <t>9,26%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>13,64%</t>
+          <t>10,83%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,77%</t>
+          <t>8,71%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>26,5%</t>
+          <t>19,18%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>14,36%</t>
+          <t>12,65%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>16,61%</t>
+          <t>12,82%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>21,32%</t>
+          <t>15,79%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>14,01%</t>
+          <t>18,37%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>12,78%</t>
+          <t>10,9%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>11,75%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>12,02%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>18,81%</t>
         </is>
       </c>
     </row>
@@ -1329,47 +1544,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10,3; 25,78</t>
+          <t>5,37; 16,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,09; 19,53</t>
+          <t>6,12; 17,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,52; 13,37</t>
+          <t>4,72; 14,7</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>21,02; 32,41</t>
+          <t>9,0; 38,24</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>10,29; 19,61</t>
+          <t>7,48; 19,64</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>12,6; 21,52</t>
+          <t>7,98; 19,45</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>17,15; 27,51</t>
+          <t>10,86; 21,95</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>10,89; 18,08</t>
+          <t>12,2; 27,17</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>10,05; 15,83</t>
+          <t>7,51; 15,41</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>7,97; 16,27</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>8,53; 15,88</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>12,85; 31,23</t>
         </is>
       </c>
     </row>
@@ -1377,52 +1607,67 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>74,45%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>78,67%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>78,63%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>61,84%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>71,91%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>66,67%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>68,28%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>75,17%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>72,52%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1435,100 +1680,134 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>65,18; 81,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>71,66; 84,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>73,09; 85,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>55,78; 68,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>65,23; 77,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>60,58; 71,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>62,17; 73,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>70,48; 79,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>68,27; 76,59</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>9,21%</t>
+          <t>18,31%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>13,59%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>12,59%</t>
+          <t>9,07%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>11,66%</t>
+          <t>12,77%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>13,73%</t>
+          <t>26,99%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>16,72%</t>
+          <t>14,84%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>10,41%</t>
+          <t>16,9%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>10,81%</t>
+          <t>20,88%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>14,7%</t>
+          <t>22,64%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>14,24%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>13,06%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>17,0%</t>
         </is>
       </c>
     </row>
@@ -1541,104 +1820,130 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>5,73; 14,18</t>
+          <t>12,98; 30,09</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4,31; 12,48</t>
+          <t>8,81; 19,42</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>8,44; 18,09</t>
+          <t>5,65; 13,14</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>7,97; 16,09</t>
+          <t>8,1; 19,33</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>9,61; 19,49</t>
+          <t>21,29; 33,19</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>12,43; 21,47</t>
+          <t>10,75; 19,88</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>7,6; 13,61</t>
+          <t>13,05; 21,23</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>7,89; 14,32</t>
+          <t>16,3; 27,3</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>11,72; 18,26</t>
+          <t>18,21; 28,35</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>11,16; 17,83</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>10,3; 16,41</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>13,59; 21,27</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>9,91%</t>
+          <t>71,36%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>78,39%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>13,37%</t>
+          <t>78,73%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>20,76%</t>
+          <t>75,02%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>16,26%</t>
+          <t>60,88%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>19,35%</t>
+          <t>71,8%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>15,61%</t>
+          <t>66,51%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>12,5%</t>
+          <t>63,11%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>16,43%</t>
+          <t>66,13%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>74,96%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>72,5%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>68,8%</t>
         </is>
       </c>
     </row>
@@ -1651,47 +1956,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>6,61; 14,38</t>
+          <t>61,35; 78,46</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>4,98; 12,94</t>
+          <t>71,5; 84,71</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>8,9; 22,8</t>
+          <t>72,67; 83,82</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>16,06; 26,34</t>
+          <t>66,91; 81,25</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>12,11; 21,25</t>
+          <t>54,6; 67,23</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>15,25; 24,32</t>
+          <t>65,84; 77,69</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>12,42; 19,4</t>
+          <t>60,9; 71,71</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>9,35; 15,81</t>
+          <t>56,12; 69,29</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>13,3; 20,94</t>
+          <t>60,1; 71,06</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>69,55; 78,73</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>68,0; 76,45</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>63,93; 73,31</t>
         </is>
       </c>
     </row>
@@ -1699,52 +2019,67 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>80,08%</t>
+          <t>10,32%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>77,44%</t>
+          <t>8,02%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>75,2%</t>
+          <t>12,21%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>65,71%</t>
+          <t>12,21%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>64,33%</t>
+          <t>12,13%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>64,67%</t>
+          <t>13,37%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>72,53%</t>
+          <t>16,59%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>70,68%</t>
+          <t>16,01%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>69,81%</t>
+          <t>11,22%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>10,81%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>14,44%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>14,2%</t>
         </is>
       </c>
     </row>
@@ -1757,47 +2092,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>74,68; 85,34</t>
+          <t>6,32; 15,53</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>68,41; 83,64</t>
+          <t>4,41; 12,57</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>67,12; 80,45</t>
+          <t>8,3; 17,69</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>59,96; 71,57</t>
+          <t>8,08; 18,51</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>57,65; 69,84</t>
+          <t>8,21; 16,96</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>59,08; 70,17</t>
+          <t>9,18; 17,85</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>67,88; 76,26</t>
+          <t>12,78; 21,57</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>65,59; 75,28</t>
+          <t>11,82; 21,42</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>65,02; 73,52</t>
+          <t>8,48; 15,05</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>8,07; 14,2</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>11,68; 17,85</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>11,0; 17,85</t>
         </is>
       </c>
     </row>
@@ -1805,52 +2155,67 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>10,01%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>14,06%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>11,43%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>13,54%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>19,41%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>15,98%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>11,86%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>16,82%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>13,76%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1863,104 +2228,134 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>6,39; 14,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>9,0; 23,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>8,14; 16,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>9,99; 18,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>14,81; 24,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>12,07; 20,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>9,3; 15,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>13,04; 21,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>10,91; 16,85</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>10,48%</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>8,47%</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>10,14%</t>
+          <t>13,78%</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>16,92%</t>
+          <t>11,31%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>16,03%</t>
+          <t>21,73%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>14,68%</t>
+          <t>16,43%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>12,29%</t>
+          <t>19,65%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>10,74%</t>
+          <t>21,14%</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>12,45%</t>
+          <t>16,33%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>12,56%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>16,8%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>16,27%</t>
         </is>
       </c>
     </row>
@@ -1973,47 +2368,62 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>4,02; 12,29</t>
+          <t>6,86; 15,37</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>3,05; 10,47</t>
+          <t>5,28; 13,07</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>6,32; 14,53</t>
+          <t>9,11; 24,49</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>11,49; 22,62</t>
+          <t>7,06; 16,69</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>10,22; 24,22</t>
+          <t>16,61; 27,54</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>10,24; 20,33</t>
+          <t>11,7; 21,65</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>8,92; 16,06</t>
+          <t>15,52; 24,73</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>7,41; 15,48</t>
+          <t>16,49; 27,18</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>9,54; 15,94</t>
+          <t>13,12; 19,77</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>9,77; 16,23</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>13,45; 21,53</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>12,69; 20,05</t>
         </is>
       </c>
     </row>
@@ -2021,52 +2431,67 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>87,57%</t>
+          <t>79,4%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>82,82%</t>
+          <t>77,43%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>74,32%</t>
+          <t>74,72%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>67,21%</t>
+          <t>80,52%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>69,03%</t>
+          <t>64,53%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>65,97%</t>
+          <t>63,91%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>77,17%</t>
+          <t>64,2%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>76,13%</t>
+          <t>66,27%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>70,08%</t>
+          <t>71,67%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>70,48%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>69,32%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>73,32%</t>
         </is>
       </c>
     </row>
@@ -2079,47 +2504,62 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>82,14; 92,28</t>
+          <t>72,4; 84,42</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>76,22; 88,38</t>
+          <t>68,93; 83,57</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>67,66; 80,5</t>
+          <t>66,39; 80,28</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>59,69; 73,75</t>
+          <t>73,33; 86,04</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>61,29; 76,5</t>
+          <t>58,61; 70,81</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>59,67; 72,1</t>
+          <t>57,75; 70,06</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>72,44; 81,71</t>
+          <t>58,34; 69,57</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>70,29; 80,58</t>
+          <t>59,27; 72,19</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>65,4; 74,61</t>
+          <t>67,58; 75,77</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>65,12; 75,07</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>64,79; 73,3</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>68,86; 77,83</t>
         </is>
       </c>
     </row>
@@ -2127,52 +2567,67 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>10,12%</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>11,41%</t>
+          <t>14,09%</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>15,54%</t>
+          <t>11,5%</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>15,87%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>14,94%</t>
+          <t>13,74%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>19,35%</t>
+          <t>19,65%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>10,54%</t>
+          <t>16,14%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>13,12%</t>
+          <t>12,59%</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>17,47%</t>
+          <t>12,0%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>16,95%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>13,88%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>10,4%</t>
         </is>
       </c>
     </row>
@@ -2185,104 +2640,130 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>2,27; 9,45</t>
+          <t>6,4; 14,9</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>6,98; 17,06</t>
+          <t>8,97; 23,24</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>10,74; 22,68</t>
+          <t>7,88; 16,32</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>10,84; 22,86</t>
+          <t>4,91; 13,09</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>9,94; 21,53</t>
+          <t>10,22; 18,66</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>14,68; 25,49</t>
+          <t>15,0; 25,37</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>7,64; 14,49</t>
+          <t>12,01; 20,71</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>9,73; 17,05</t>
+          <t>8,52; 18,8</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>13,89; 21,39</t>
+          <t>9,55; 15,23</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>13,37; 22,15</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>11,2; 16,97</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>7,62; 14,25</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>11,33%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>8,68%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>14,76%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>14,67%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>10,04%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>13,27%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>10,38%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>9,45%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -2295,100 +2776,134 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>7,03; 18,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>1,59; 9,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>4,63; 16,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>8,85; 22,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>9,01; 22,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>6,05; 16,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>9,15; 18,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>6,84; 15,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>6,27; 13,59</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>85,42%</t>
+          <t>7,34%</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>87,17%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>83,81%</t>
+          <t>10,3%</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>73,13%</t>
+          <t>14,97%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>67,43%</t>
+          <t>17,47%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>74,3%</t>
+          <t>15,88%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>78,48%</t>
+          <t>14,42%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>75,55%</t>
+          <t>15,88%</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>78,44%</t>
+          <t>12,49%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>10,61%</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>12,4%</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>15,43%</t>
         </is>
       </c>
     </row>
@@ -2401,47 +2916,62 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>77,53; 90,39</t>
+          <t>4,02; 12,19</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>80,04; 92,55</t>
+          <t>2,94; 10,16</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>76,46; 89,52</t>
+          <t>6,53; 15,49</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>65,0; 80,05</t>
+          <t>8,07; 26,53</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>57,94; 75,7</t>
+          <t>12,28; 23,39</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>66,3; 80,93</t>
+          <t>10,45; 22,98</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>72,8; 83,48</t>
+          <t>9,9; 19,74</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>68,72; 81,4</t>
+          <t>10,39; 22,7</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>73,37; 83,25</t>
+          <t>9,14; 16,08</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>7,06; 14,39</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>9,52; 15,63</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>10,74; 21,36</t>
         </is>
       </c>
     </row>
@@ -2449,52 +2979,67 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>87,68%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>8,58%</t>
+          <t>82,74%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>7,51%</t>
+          <t>73,94%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>12,11%</t>
+          <t>68,0%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>17,9%</t>
+          <t>66,43%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>15,66%</t>
+          <t>68,63%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>8,25%</t>
+          <t>66,23%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>14,06%</t>
+          <t>65,49%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>12,11%</t>
+          <t>76,87%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>75,87%</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>70,01%</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>66,72%</t>
         </is>
       </c>
     </row>
@@ -2507,104 +3052,130 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>1,23; 7,16</t>
+          <t>81,69; 92,13</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>4,41; 15,35</t>
+          <t>76,5; 88,05</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>4,09; 13,0</t>
+          <t>66,83; 79,51</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>8,0; 17,71</t>
+          <t>56,73; 76,89</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>11,47; 27,65</t>
+          <t>59,13; 73,11</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>10,92; 21,66</t>
+          <t>60,74; 76,08</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>5,57; 12,19</t>
+          <t>59,44; 72,06</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>9,63; 20,35</t>
+          <t>55,8; 73,65</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>8,68; 15,75</t>
+          <t>71,84; 81,08</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>71,19; 80,81</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>65,19; 74,34</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>60,11; 73,35</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>12,1%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>9,09%</t>
+          <t>11,64%</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>11,55%</t>
+          <t>15,76%</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>20,4%</t>
+          <t>17,03%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>15,41%</t>
+          <t>16,1%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>15,14%</t>
+          <t>15,49%</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>16,35%</t>
+          <t>19,35%</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>12,33%</t>
+          <t>18,63%</t>
         </is>
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>13,38%</t>
+          <t>10,64%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>13,51%</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>17,59%</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>17,84%</t>
         </is>
       </c>
     </row>
@@ -2617,47 +3188,62 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>9,95; 15,89</t>
+          <t>2,57; 9,52</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>7,28; 11,35</t>
+          <t>7,11; 17,38</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>9,36; 14,0</t>
+          <t>11,57; 23,0</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>17,66; 22,94</t>
+          <t>11,02; 25,72</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>13,31; 18,03</t>
+          <t>11,02; 22,73</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>13,26; 17,36</t>
+          <t>10,44; 22,14</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>14,43; 18,32</t>
+          <t>14,17; 25,53</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>10,74; 13,86</t>
+          <t>12,58; 27,51</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>12,02; 14,99</t>
+          <t>7,57; 14,87</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>10,17; 17,66</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>14,08; 21,74</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>13,13; 23,25</t>
         </is>
       </c>
     </row>
@@ -2665,52 +3251,67 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>79,68%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>79,74%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>77,96%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>66,72%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>69,07%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>67,5%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>73,05%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t>74,27%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>72,61%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -2723,100 +3324,134 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>75,83; 82,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>76,56; 82,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>75,16; 80,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>63,81; 69,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>65,9; 72,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>64,55; 70,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>71,06; 75,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>72,03; 76,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>70,63; 74,49</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>8,22%</t>
+          <t>11,92%</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>11,17%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>10,49%</t>
+          <t>8,74%</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>12,88%</t>
+          <t>9,3%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>15,52%</t>
+          <t>14,04%</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>17,37%</t>
+          <t>14,7%</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>10,61%</t>
+          <t>10,31%</t>
         </is>
       </c>
       <c r="J44" s="2" t="inlineStr">
         <is>
-          <t>13,4%</t>
+          <t>15,68%</t>
         </is>
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>14,01%</t>
+          <t>13,12%</t>
+        </is>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>10,43%</t>
+        </is>
+      </c>
+      <c r="M44" s="2" t="inlineStr">
+        <is>
+          <t>9,62%</t>
+        </is>
+      </c>
+      <c r="N44" s="2" t="inlineStr">
+        <is>
+          <t>12,91%</t>
         </is>
       </c>
     </row>
@@ -2829,63 +3464,1041 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>6,58; 10,21</t>
+          <t>6,94; 18,06</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>9,05; 13,87</t>
+          <t>1,36; 9,45</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>8,8; 12,68</t>
+          <t>4,66; 15,41</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>10,87; 15,08</t>
+          <t>3,95; 19,91</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>13,24; 18,0</t>
+          <t>8,97; 24,76</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>15,3; 19,66</t>
+          <t>9,41; 22,16</t>
         </is>
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>9,24; 11,99</t>
+          <t>6,32; 18,88</t>
         </is>
       </c>
       <c r="J45" s="2" t="inlineStr">
         <is>
-          <t>11,68; 15,17</t>
+          <t>8,91; 29,23</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>12,42; 15,36</t>
+          <t>9,26; 18,98</t>
+        </is>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
+        <is>
+          <t>6,94; 15,78</t>
+        </is>
+      </c>
+      <c r="M45" s="2" t="inlineStr">
+        <is>
+          <t>6,36; 14,78</t>
+        </is>
+      </c>
+      <c r="N45" s="2" t="inlineStr">
+        <is>
+          <t>8,18; 20,36</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>84,4%</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>86,63%</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>83,4%</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>79,35%</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>72,16%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>66,88%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>73,44%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>69,79%</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>77,46%</t>
+        </is>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>75,1%</t>
+        </is>
+      </c>
+      <c r="M46" s="2" t="inlineStr">
+        <is>
+          <t>77,79%</t>
+        </is>
+      </c>
+      <c r="N46" s="2" t="inlineStr">
+        <is>
+          <t>73,93%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>77,84; 90,02</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>79,57; 92,66</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>76,39; 89,37</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>68,57; 87,95</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>63,12; 79,25</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>58,74; 75,33</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>65,88; 80,34</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>58,41; 78,53</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>70,84; 82,44</t>
+        </is>
+      </c>
+      <c r="L47" s="2" t="inlineStr">
+        <is>
+          <t>69,02; 81,05</t>
+        </is>
+      </c>
+      <c r="M47" s="2" t="inlineStr">
+        <is>
+          <t>71,88; 82,42</t>
+        </is>
+      </c>
+      <c r="N47" s="2" t="inlineStr">
+        <is>
+          <t>67,11; 80,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>3,68%</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>8,91%</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>7,85%</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>11,36%</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>13,8%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>18,42%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>16,26%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>14,53%</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>9,42%</t>
+        </is>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>14,46%</t>
+        </is>
+      </c>
+      <c r="M48" s="2" t="inlineStr">
+        <is>
+          <t>12,59%</t>
+        </is>
+      </c>
+      <c r="N48" s="2" t="inlineStr">
+        <is>
+          <t>13,15%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>1,38; 8,35</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>4,06; 14,51</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>4,28; 13,2</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>5,29; 20,71</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>9,23; 19,52</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>11,76; 26,86</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>10,92; 22,16</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>8,71; 23,16</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>6,23; 13,13</t>
+        </is>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>10,25; 20,17</t>
+        </is>
+      </c>
+      <c r="M49" s="2" t="inlineStr">
+        <is>
+          <t>9,13; 16,81</t>
+        </is>
+      </c>
+      <c r="N49" s="2" t="inlineStr">
+        <is>
+          <t>9,1; 19,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>12,86%</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>9,04%</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>11,7%</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>12,36%</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>20,76%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>15,45%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>15,27%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>18,87%</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>16,9%</t>
+        </is>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
+        <is>
+          <t>12,32%</t>
+        </is>
+      </c>
+      <c r="M52" s="2" t="inlineStr">
+        <is>
+          <t>13,53%</t>
+        </is>
+      </c>
+      <c r="N52" s="2" t="inlineStr">
+        <is>
+          <t>15,69%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>10,3; 16,74</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>7,17; 11,39</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>9,67; 14,32</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>9,77; 15,76</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>18,34; 23,7</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>13,2; 17,81</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>13,55; 17,53</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>16,18; 21,99</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>15,07; 18,89</t>
+        </is>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
+        <is>
+          <t>10,72; 13,97</t>
+        </is>
+      </c>
+      <c r="M53" s="2" t="inlineStr">
+        <is>
+          <t>11,93; 15,26</t>
+        </is>
+      </c>
+      <c r="N53" s="2" t="inlineStr">
+        <is>
+          <t>13,87; 18,01</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>78,59%</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>79,69%</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>77,77%</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>74,06%</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>65,88%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>69,0%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>67,23%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>63,7%</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>72,08%</t>
+        </is>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
+        <is>
+          <t>74,21%</t>
+        </is>
+      </c>
+      <c r="M54" s="2" t="inlineStr">
+        <is>
+          <t>72,38%</t>
+        </is>
+      </c>
+      <c r="N54" s="2" t="inlineStr">
+        <is>
+          <t>68,76%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>74,7; 81,6</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>76,35; 82,51</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>74,72; 80,37</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>69,27; 77,9</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>62,66; 68,78</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>65,87; 71,91</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>64,36; 69,56</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>60,43; 67,25</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>69,69; 74,1</t>
+        </is>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
+        <is>
+          <t>71,89; 76,39</t>
+        </is>
+      </c>
+      <c r="M55" s="2" t="inlineStr">
+        <is>
+          <t>70,31; 74,25</t>
+        </is>
+      </c>
+      <c r="N55" s="2" t="inlineStr">
+        <is>
+          <t>65,98; 71,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>8,56%</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>11,26%</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>10,53%</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>13,59%</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>13,36%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>15,55%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>17,5%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>17,43%</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>11,02%</t>
+        </is>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
+        <is>
+          <t>13,46%</t>
+        </is>
+      </c>
+      <c r="M56" s="2" t="inlineStr">
+        <is>
+          <t>14,09%</t>
+        </is>
+      </c>
+      <c r="N56" s="2" t="inlineStr">
+        <is>
+          <t>15,55%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>6,89; 10,47</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>9,16; 14,14</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>8,79; 12,69</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>10,72; 18,19</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>11,39; 15,7</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>13,5; 18,48</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>15,52; 19,99</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>14,94; 20,17</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>9,57; 12,51</t>
+        </is>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
+        <is>
+          <t>11,73; 15,32</t>
+        </is>
+      </c>
+      <c r="M57" s="2" t="inlineStr">
+        <is>
+          <t>12,72; 15,7</t>
+        </is>
+      </c>
+      <c r="N57" s="2" t="inlineStr">
+        <is>
+          <t>13,73; 18,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A27"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
